--- a/web-scraping/sites/generic_one_table/pages.xlsx
+++ b/web-scraping/sites/generic_one_table/pages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>url</t>
   </si>
@@ -22,6 +22,9 @@
     <t>browser_to_use</t>
   </si>
   <si>
+    <t>nickname</t>
+  </si>
+  <si>
     <t>html_id_1</t>
   </si>
   <si>
@@ -31,13 +34,16 @@
     <t>html_id_2</t>
   </si>
   <si>
-    <t>html_class_2</t>
+    <t>b</t>
   </si>
   <si>
     <t>https://www.vgchartz.com/charts/platform_totals/Hardware.php</t>
   </si>
   <si>
     <t>firefox</t>
+  </si>
+  <si>
+    <t>vgchartz</t>
   </si>
   <si>
     <t>myTable</t>
@@ -118,6 +124,9 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -129,9 +138,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -438,7 +444,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -446,10 +452,11 @@
   <cols>
     <col min="1" max="1" style="7" width="32.29071428571429" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="8.290714285714287" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -462,67 +469,77 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web-scraping/sites/generic_one_table/pages.xlsx
+++ b/web-scraping/sites/generic_one_table/pages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>url</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>class2</t>
+  </si>
+  <si>
+    <t>vgchartz_2</t>
   </si>
 </sst>
 </file>
@@ -506,13 +509,27 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="5"/>

--- a/web-scraping/sites/generic_one_table/pages.xlsx
+++ b/web-scraping/sites/generic_one_table/pages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>url</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>class2</t>
-  </si>
-  <si>
-    <t>vgchartz_2</t>
   </si>
 </sst>
 </file>
@@ -447,7 +444,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -509,31 +506,17 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -549,15 +532,6 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
